--- a/output/estadisticas_museosenparo.xlsx
+++ b/output/estadisticas_museosenparo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Documents/git/github/acdm/analytics/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F32338-E7C8-C24D-84A1-D3590AB69CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6CF7E7-1591-EC40-8292-EDCED99DEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="3180" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{64410736-C778-B847-8ADB-758E8E920C9F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3221" uniqueCount="1539">
   <si>
     <t>texto</t>
   </si>
@@ -2419,9 +2419,6 @@
     <t xml:space="preserve"> Quebec</t>
   </si>
   <si>
-    <t>Montréal</t>
-  </si>
-  <si>
     <t>Vera Vera</t>
   </si>
   <si>
@@ -3067,9 +3064,6 @@
     <t>Jacqueline Herranz</t>
   </si>
   <si>
-    <t xml:space="preserve"> New York</t>
-  </si>
-  <si>
     <t>Lina Rosas</t>
   </si>
   <si>
@@ -3314,9 +3308,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Ontario</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
   </si>
   <si>
     <t>Ángel alquides Soto García</t>
@@ -5753,16 +5744,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>518</v>
@@ -5786,8 +5777,8 @@
   <dimension ref="A1:L594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G151" sqref="G151"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E560" sqref="E560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9052,10 +9043,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B156" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C156" t="s">
         <v>216</v>
@@ -9069,10 +9060,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B157" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C157" t="s">
         <v>216</v>
@@ -9086,10 +9077,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B158" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C158" t="s">
         <v>530</v>
@@ -9103,10 +9094,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B159" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C159" t="s">
         <v>532</v>
@@ -9120,10 +9111,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B160" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C160" t="s">
         <v>533</v>
@@ -9137,10 +9128,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B161" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C161" t="s">
         <v>534</v>
@@ -9154,10 +9145,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B162" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C162" t="s">
         <v>535</v>
@@ -9171,10 +9162,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B163" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C163" t="s">
         <v>536</v>
@@ -9188,10 +9179,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B164" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C164" t="s">
         <v>537</v>
@@ -9205,10 +9196,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B165" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C165" t="s">
         <v>538</v>
@@ -9222,10 +9213,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B166" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C166" t="s">
         <v>539</v>
@@ -9239,10 +9230,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B167" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C167" t="s">
         <v>540</v>
@@ -9256,10 +9247,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B168" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C168" t="s">
         <v>542</v>
@@ -9273,10 +9264,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B169" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C169" t="s">
         <v>543</v>
@@ -9290,10 +9281,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B170" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C170" t="s">
         <v>544</v>
@@ -9307,10 +9298,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B171" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C171" t="s">
         <v>545</v>
@@ -9324,10 +9315,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B172" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C172" t="s">
         <v>546</v>
@@ -9341,10 +9332,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B173" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C173" t="s">
         <v>547</v>
@@ -9355,10 +9346,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B174" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C174" t="s">
         <v>548</v>
@@ -9372,10 +9363,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B175" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C175" t="s">
         <v>550</v>
@@ -9389,10 +9380,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B176" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C176" t="s">
         <v>551</v>
@@ -9401,15 +9392,15 @@
         <v>552</v>
       </c>
       <c r="F176" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B177" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C177" t="s">
         <v>553</v>
@@ -9423,10 +9414,10 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B178" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C178" t="s">
         <v>554</v>
@@ -9440,10 +9431,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B179" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C179" t="s">
         <v>555</v>
@@ -9452,15 +9443,15 @@
         <v>552</v>
       </c>
       <c r="F179" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B180" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C180" t="s">
         <v>556</v>
@@ -9474,10 +9465,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B181" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C181" t="s">
         <v>557</v>
@@ -9491,10 +9482,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B182" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C182" t="s">
         <v>559</v>
@@ -9508,10 +9499,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B183" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C183" t="s">
         <v>561</v>
@@ -9522,10 +9513,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B184" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C184" t="s">
         <v>562</v>
@@ -9539,10 +9530,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B185" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C185" t="s">
         <v>564</v>
@@ -9556,10 +9547,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B186" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C186" t="s">
         <v>565</v>
@@ -9568,15 +9559,15 @@
         <v>552</v>
       </c>
       <c r="F186" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B187" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C187" t="s">
         <v>566</v>
@@ -9587,10 +9578,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B188" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C188" t="s">
         <v>567</v>
@@ -9604,10 +9595,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B189" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C189" t="s">
         <v>569</v>
@@ -9618,10 +9609,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B190" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C190" t="s">
         <v>570</v>
@@ -9635,10 +9626,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B191" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C191" t="s">
         <v>572</v>
@@ -9652,10 +9643,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B192" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C192" t="s">
         <v>575</v>
@@ -9664,15 +9655,15 @@
         <v>552</v>
       </c>
       <c r="F192" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B193" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C193" t="s">
         <v>576</v>
@@ -9686,10 +9677,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B194" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C194" t="s">
         <v>577</v>
@@ -9700,10 +9691,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B195" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C195" t="s">
         <v>578</v>
@@ -9712,15 +9703,15 @@
         <v>552</v>
       </c>
       <c r="F195" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B196" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C196" t="s">
         <v>579</v>
@@ -9734,10 +9725,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B197" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C197" t="s">
         <v>580</v>
@@ -9751,10 +9742,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B198" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C198" t="s">
         <v>582</v>
@@ -9768,10 +9759,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B199" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C199" t="s">
         <v>583</v>
@@ -9785,10 +9776,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B200" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C200" t="s">
         <v>584</v>
@@ -9802,10 +9793,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B201" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C201" t="s">
         <v>586</v>
@@ -9819,10 +9810,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B202" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C202" t="s">
         <v>587</v>
@@ -9833,10 +9824,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B203" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C203" t="s">
         <v>588</v>
@@ -9850,10 +9841,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B204" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C204" t="s">
         <v>589</v>
@@ -9867,10 +9858,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B205" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C205" t="s">
         <v>590</v>
@@ -9884,10 +9875,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B206" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C206" t="s">
         <v>591</v>
@@ -9901,10 +9892,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B207" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C207" t="s">
         <v>593</v>
@@ -9918,10 +9909,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B208" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C208" t="s">
         <v>594</v>
@@ -9935,10 +9926,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B209" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C209" t="s">
         <v>595</v>
@@ -9952,10 +9943,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B210" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C210" t="s">
         <v>597</v>
@@ -9969,10 +9960,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B211" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C211" t="s">
         <v>598</v>
@@ -9986,10 +9977,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B212" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C212" t="s">
         <v>599</v>
@@ -10003,10 +9994,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B213" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C213" t="s">
         <v>601</v>
@@ -10020,10 +10011,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B214" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C214" t="s">
         <v>602</v>
@@ -10037,10 +10028,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B215" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C215" t="s">
         <v>603</v>
@@ -10054,10 +10045,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B216" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C216" t="s">
         <v>604</v>
@@ -10071,10 +10062,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B217" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C217" t="s">
         <v>605</v>
@@ -10088,10 +10079,10 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B218" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C218" t="s">
         <v>606</v>
@@ -10105,10 +10096,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B219" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C219" t="s">
         <v>607</v>
@@ -10122,10 +10113,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B220" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C220" t="s">
         <v>608</v>
@@ -10139,10 +10130,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B221" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C221" t="s">
         <v>610</v>
@@ -10156,10 +10147,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B222" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C222" t="s">
         <v>612</v>
@@ -10173,10 +10164,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B223" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C223" t="s">
         <v>613</v>
@@ -10185,15 +10176,15 @@
         <v>552</v>
       </c>
       <c r="F223" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B224" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C224" t="s">
         <v>614</v>
@@ -10207,10 +10198,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B225" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C225" t="s">
         <v>615</v>
@@ -10224,10 +10215,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B226" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C226" t="s">
         <v>616</v>
@@ -10241,10 +10232,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B227" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C227" t="s">
         <v>617</v>
@@ -10258,10 +10249,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B228" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C228" t="s">
         <v>618</v>
@@ -10275,10 +10266,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B229" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C229" t="s">
         <v>619</v>
@@ -10292,10 +10283,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="B230" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C230" t="s">
         <v>620</v>
@@ -10309,10 +10300,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B231" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C231" t="s">
         <v>621</v>
@@ -10323,10 +10314,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="B232" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C232" t="s">
         <v>622</v>
@@ -10340,10 +10331,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B233" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C233" t="s">
         <v>623</v>
@@ -10357,10 +10348,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B234" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C234" t="s">
         <v>624</v>
@@ -10371,10 +10362,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="B235" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C235" t="s">
         <v>625</v>
@@ -10388,10 +10379,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B236" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C236" t="s">
         <v>626</v>
@@ -10405,10 +10396,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="B237" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C237" t="s">
         <v>627</v>
@@ -10422,10 +10413,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B238" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C238" t="s">
         <v>628</v>
@@ -10439,10 +10430,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="B239" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C239" t="s">
         <v>629</v>
@@ -10456,10 +10447,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B240" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C240" t="s">
         <v>630</v>
@@ -10473,10 +10464,10 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="B241" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C241" t="s">
         <v>632</v>
@@ -10490,10 +10481,10 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B242" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C242" t="s">
         <v>633</v>
@@ -10507,10 +10498,10 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B243" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C243" t="s">
         <v>634</v>
@@ -10524,10 +10515,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B244" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C244" t="s">
         <v>635</v>
@@ -10538,10 +10529,10 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="B245" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C245" t="s">
         <v>636</v>
@@ -10555,10 +10546,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B246" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C246" t="s">
         <v>638</v>
@@ -10572,10 +10563,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="B247" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C247" t="s">
         <v>639</v>
@@ -10589,10 +10580,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B248" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C248" t="s">
         <v>640</v>
@@ -10606,10 +10597,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="B249" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C249" t="s">
         <v>641</v>
@@ -10623,10 +10614,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B250" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C250" t="s">
         <v>642</v>
@@ -10640,10 +10631,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="B251" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C251" t="s">
         <v>643</v>
@@ -10657,10 +10648,10 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B252" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C252" t="s">
         <v>644</v>
@@ -10674,10 +10665,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B253" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C253" t="s">
         <v>646</v>
@@ -10691,10 +10682,10 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B254" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C254" t="s">
         <v>647</v>
@@ -10708,10 +10699,10 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="B255" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C255" t="s">
         <v>648</v>
@@ -10725,10 +10716,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B256" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C256" t="s">
         <v>649</v>
@@ -10742,10 +10733,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B257" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C257" t="s">
         <v>650</v>
@@ -10759,10 +10750,10 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B258" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C258" t="s">
         <v>651</v>
@@ -10776,10 +10767,10 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="B259" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C259" t="s">
         <v>652</v>
@@ -10793,10 +10784,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B260" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C260" t="s">
         <v>653</v>
@@ -10810,10 +10801,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="B261" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C261" t="s">
         <v>655</v>
@@ -10822,15 +10813,15 @@
         <v>552</v>
       </c>
       <c r="F261" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B262" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C262" t="s">
         <v>656</v>
@@ -10844,10 +10835,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="B263" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C263" t="s">
         <v>657</v>
@@ -10861,10 +10852,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B264" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C264" t="s">
         <v>658</v>
@@ -10878,10 +10869,10 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="B265" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C265" t="s">
         <v>659</v>
@@ -10895,10 +10886,10 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B266" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C266" t="s">
         <v>660</v>
@@ -10912,10 +10903,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B267" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C267" t="s">
         <v>662</v>
@@ -10929,10 +10920,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B268" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C268" t="s">
         <v>663</v>
@@ -10946,10 +10937,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="B269" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C269" t="s">
         <v>665</v>
@@ -10963,10 +10954,10 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B270" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C270" t="s">
         <v>666</v>
@@ -10980,10 +10971,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B271" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C271" t="s">
         <v>667</v>
@@ -10997,10 +10988,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B272" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C272" t="s">
         <v>670</v>
@@ -11014,10 +11005,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="B273" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C273" t="s">
         <v>672</v>
@@ -11031,10 +11022,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B274" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C274" t="s">
         <v>673</v>
@@ -11048,10 +11039,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="B275" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C275" t="s">
         <v>674</v>
@@ -11062,10 +11053,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B276" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C276" t="s">
         <v>675</v>
@@ -11079,10 +11070,10 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="B277" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C277" t="s">
         <v>676</v>
@@ -11096,10 +11087,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B278" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C278" t="s">
         <v>678</v>
@@ -11113,10 +11104,10 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B279" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C279" t="s">
         <v>679</v>
@@ -11130,10 +11121,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="B280" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C280" t="s">
         <v>680</v>
@@ -11147,10 +11138,10 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B281" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C281" t="s">
         <v>682</v>
@@ -11164,10 +11155,10 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B282" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C282" t="s">
         <v>684</v>
@@ -11178,10 +11169,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B283" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C283" t="s">
         <v>685</v>
@@ -11195,10 +11186,10 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B284" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C284" t="s">
         <v>686</v>
@@ -11212,10 +11203,10 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B285" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C285" t="s">
         <v>689</v>
@@ -11229,10 +11220,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="B286" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C286" t="s">
         <v>691</v>
@@ -11246,10 +11237,10 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B287" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C287" t="s">
         <v>693</v>
@@ -11263,10 +11254,10 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B288" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C288" t="s">
         <v>694</v>
@@ -11280,10 +11271,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B289" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C289" t="s">
         <v>695</v>
@@ -11297,10 +11288,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B290" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C290" t="s">
         <v>696</v>
@@ -11314,10 +11305,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="B291" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C291" t="s">
         <v>698</v>
@@ -11331,10 +11322,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B292" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C292" t="s">
         <v>700</v>
@@ -11348,10 +11339,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B293" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C293" t="s">
         <v>702</v>
@@ -11360,15 +11351,15 @@
         <v>552</v>
       </c>
       <c r="F293" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B294" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C294" t="s">
         <v>703</v>
@@ -11377,15 +11368,15 @@
         <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="B295" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C295" t="s">
         <v>704</v>
@@ -11399,10 +11390,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B296" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C296" t="s">
         <v>706</v>
@@ -11411,15 +11402,15 @@
         <v>552</v>
       </c>
       <c r="F296" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B297" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C297" t="s">
         <v>707</v>
@@ -11433,10 +11424,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B298" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C298" t="s">
         <v>708</v>
@@ -11450,10 +11441,10 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B299" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C299" t="s">
         <v>710</v>
@@ -11464,10 +11455,10 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B300" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C300" t="s">
         <v>711</v>
@@ -11481,10 +11472,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B301" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C301" t="s">
         <v>712</v>
@@ -11498,10 +11489,10 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B302" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C302" t="s">
         <v>713</v>
@@ -11512,10 +11503,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B303" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C303" t="s">
         <v>714</v>
@@ -11529,10 +11520,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B304" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C304" t="s">
         <v>717</v>
@@ -11541,15 +11532,15 @@
         <v>552</v>
       </c>
       <c r="F304" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B305" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C305" t="s">
         <v>718</v>
@@ -11563,10 +11554,10 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B306" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C306" t="s">
         <v>720</v>
@@ -11580,10 +11571,10 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="B307" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C307" t="s">
         <v>721</v>
@@ -11597,10 +11588,10 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B308" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C308" t="s">
         <v>722</v>
@@ -11614,10 +11605,10 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B309" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C309" t="s">
         <v>723</v>
@@ -11631,10 +11622,10 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B310" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C310" t="s">
         <v>724</v>
@@ -11648,10 +11639,10 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B311" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C311" t="s">
         <v>725</v>
@@ -11662,10 +11653,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="B312" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C312" t="s">
         <v>726</v>
@@ -11676,10 +11667,10 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="B313" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C313" t="s">
         <v>727</v>
@@ -11688,15 +11679,15 @@
         <v>552</v>
       </c>
       <c r="F313" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B314" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C314" t="s">
         <v>728</v>
@@ -11710,10 +11701,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="B315" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C315" t="s">
         <v>730</v>
@@ -11727,10 +11718,10 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="B316" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C316" t="s">
         <v>732</v>
@@ -11744,10 +11735,10 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B317" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C317" t="s">
         <v>734</v>
@@ -11758,10 +11749,10 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="B318" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C318" t="s">
         <v>735</v>
@@ -11775,10 +11766,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B319" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C319" t="s">
         <v>736</v>
@@ -11787,15 +11778,15 @@
         <v>552</v>
       </c>
       <c r="F319" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B320" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C320" t="s">
         <v>737</v>
@@ -11809,10 +11800,10 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="B321" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C321" t="s">
         <v>739</v>
@@ -11826,10 +11817,10 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B322" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C322" t="s">
         <v>740</v>
@@ -11843,10 +11834,10 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B323" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C323" t="s">
         <v>742</v>
@@ -11860,10 +11851,10 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="B324" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C324" t="s">
         <v>743</v>
@@ -11877,10 +11868,10 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B325" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C325" t="s">
         <v>745</v>
@@ -11894,10 +11885,10 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B326" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C326" t="s">
         <v>746</v>
@@ -11911,10 +11902,10 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="B327" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C327" t="s">
         <v>748</v>
@@ -11928,10 +11919,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="B328" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C328" t="s">
         <v>749</v>
@@ -11945,10 +11936,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B329" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C329" t="s">
         <v>751</v>
@@ -11962,10 +11953,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="B330" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C330" t="s">
         <v>752</v>
@@ -11976,10 +11967,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="B331" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C331" t="s">
         <v>753</v>
@@ -11990,10 +11981,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B332" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C332" t="s">
         <v>754</v>
@@ -12007,10 +11998,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="B333" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C333" t="s">
         <v>756</v>
@@ -12024,10 +12015,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B334" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C334" t="s">
         <v>757</v>
@@ -12041,10 +12032,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B335" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C335" t="s">
         <v>758</v>
@@ -12058,10 +12049,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="B336" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C336" t="s">
         <v>759</v>
@@ -12075,10 +12066,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="B337" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C337" t="s">
         <v>761</v>
@@ -12092,10 +12083,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B338" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C338" t="s">
         <v>763</v>
@@ -12109,10 +12100,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="B339" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C339" t="s">
         <v>765</v>
@@ -12121,15 +12112,15 @@
         <v>552</v>
       </c>
       <c r="F339" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B340" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C340" t="s">
         <v>766</v>
@@ -12143,10 +12134,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B341" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C341" t="s">
         <v>769</v>
@@ -12155,15 +12146,15 @@
         <v>552</v>
       </c>
       <c r="F341" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B342" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C342" t="s">
         <v>770</v>
@@ -12174,10 +12165,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="B343" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C343" t="s">
         <v>771</v>
@@ -12191,10 +12182,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B344" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C344" t="s">
         <v>773</v>
@@ -12205,10 +12196,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B345" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C345" t="s">
         <v>774</v>
@@ -12217,15 +12208,15 @@
         <v>552</v>
       </c>
       <c r="F345" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B346" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C346" t="s">
         <v>775</v>
@@ -12239,10 +12230,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B347" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C347" t="s">
         <v>776</v>
@@ -12256,30 +12247,30 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="B348" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C348" t="s">
         <v>777</v>
       </c>
       <c r="E348" t="s">
+        <v>301</v>
+      </c>
+      <c r="F348" t="s">
         <v>778</v>
-      </c>
-      <c r="F348" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B349" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C349" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E349" t="s">
         <v>528</v>
@@ -12290,64 +12281,64 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B350" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C350" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E350" t="s">
         <v>552</v>
       </c>
       <c r="F350" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="B351" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C351" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E351" t="s">
         <v>552</v>
       </c>
       <c r="F351" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B352" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C352" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E352" t="s">
         <v>552</v>
       </c>
       <c r="F352" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B353" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C353" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E353" t="s">
         <v>96</v>
@@ -12355,13 +12346,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="B354" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C354" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E354" t="s">
         <v>96</v>
@@ -12369,30 +12360,30 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="B355" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C355" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E355" t="s">
         <v>552</v>
       </c>
       <c r="F355" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B356" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C356" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E356" t="s">
         <v>528</v>
@@ -12403,13 +12394,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B357" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C357" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E357" t="s">
         <v>552</v>
@@ -12420,13 +12411,13 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="B358" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C358" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E358" t="s">
         <v>528</v>
@@ -12437,13 +12428,13 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B359" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C359" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E359" t="s">
         <v>528</v>
@@ -12454,13 +12445,13 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B360" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C360" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E360" t="s">
         <v>528</v>
@@ -12471,13 +12462,13 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B361" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C361" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E361" t="s">
         <v>528</v>
@@ -12488,47 +12479,47 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B362" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C362" t="s">
+        <v>793</v>
+      </c>
+      <c r="E362" t="s">
+        <v>528</v>
+      </c>
+      <c r="F362" t="s">
         <v>794</v>
-      </c>
-      <c r="E362" t="s">
-        <v>528</v>
-      </c>
-      <c r="F362" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B363" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C363" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E363" t="s">
         <v>552</v>
       </c>
       <c r="F363" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B364" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C364" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E364" t="s">
         <v>528</v>
@@ -12539,47 +12530,47 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B365" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C365" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E365" t="s">
         <v>552</v>
       </c>
       <c r="F365" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B366" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C366" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E366" t="s">
         <v>552</v>
       </c>
       <c r="F366" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B367" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C367" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E367" t="s">
         <v>528</v>
@@ -12590,13 +12581,13 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B368" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C368" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E368" t="s">
         <v>56</v>
@@ -12604,13 +12595,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B369" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C369" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E369" t="s">
         <v>552</v>
@@ -12621,13 +12612,13 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B370" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C370" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E370" t="s">
         <v>528</v>
@@ -12638,13 +12629,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B371" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C371" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E371" t="s">
         <v>96</v>
@@ -12652,30 +12643,30 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B372" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C372" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E372" t="s">
         <v>552</v>
       </c>
       <c r="F372" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B373" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C373" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E373" t="s">
         <v>56</v>
@@ -12683,30 +12674,30 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B374" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C374" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E374" t="s">
         <v>573</v>
       </c>
       <c r="F374" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B375" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C375" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E375" t="s">
         <v>96</v>
@@ -12714,30 +12705,30 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B376" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C376" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E376" t="s">
         <v>552</v>
       </c>
       <c r="F376" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B377" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C377" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E377" t="s">
         <v>528</v>
@@ -12748,13 +12739,13 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B378" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C378" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E378" t="s">
         <v>528</v>
@@ -12765,30 +12756,30 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B379" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C379" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E379" t="s">
         <v>552</v>
       </c>
       <c r="F379" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B380" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C380" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E380" t="s">
         <v>96</v>
@@ -12796,13 +12787,13 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B381" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C381" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E381" t="s">
         <v>56</v>
@@ -12810,13 +12801,13 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B382" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C382" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E382" t="s">
         <v>528</v>
@@ -12827,30 +12818,30 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B383" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C383" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E383" t="s">
         <v>573</v>
       </c>
       <c r="F383" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B384" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C384" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E384" t="s">
         <v>552</v>
@@ -12861,13 +12852,13 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B385" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C385" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E385" t="s">
         <v>528</v>
@@ -12878,47 +12869,47 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B386" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C386" t="s">
+        <v>823</v>
+      </c>
+      <c r="E386" t="s">
+        <v>528</v>
+      </c>
+      <c r="F386" t="s">
         <v>824</v>
-      </c>
-      <c r="E386" t="s">
-        <v>528</v>
-      </c>
-      <c r="F386" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B387" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C387" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E387" t="s">
         <v>552</v>
       </c>
       <c r="F387" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B388" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C388" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E388" t="s">
         <v>528</v>
@@ -12929,13 +12920,13 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B389" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C389" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E389" t="s">
         <v>528</v>
@@ -12946,13 +12937,13 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B390" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C390" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E390" t="s">
         <v>552</v>
@@ -12963,13 +12954,13 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B391" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C391" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F391" t="s">
         <v>56</v>
@@ -12977,13 +12968,13 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B392" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C392" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E392" t="s">
         <v>528</v>
@@ -12994,13 +12985,13 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B393" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C393" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E393" t="s">
         <v>528</v>
@@ -13011,13 +13002,13 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B394" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C394" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E394" t="s">
         <v>96</v>
@@ -13025,13 +13016,13 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B395" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C395" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E395" t="s">
         <v>96</v>
@@ -13039,13 +13030,13 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B396" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C396" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E396" t="s">
         <v>552</v>
@@ -13056,13 +13047,13 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B397" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C397" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E397" t="s">
         <v>528</v>
@@ -13073,30 +13064,30 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B398" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C398" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E398" t="s">
         <v>552</v>
       </c>
       <c r="F398" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B399" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C399" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E399" t="s">
         <v>528</v>
@@ -13107,13 +13098,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B400" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C400" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E400" t="s">
         <v>552</v>
@@ -13124,13 +13115,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B401" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C401" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E401" t="s">
         <v>96</v>
@@ -13138,30 +13129,30 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="B402" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C402" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E402" t="s">
         <v>552</v>
       </c>
       <c r="F402" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B403" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C403" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E403" t="s">
         <v>661</v>
@@ -13172,81 +13163,81 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B404" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C404" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E404" t="s">
         <v>552</v>
       </c>
       <c r="F404" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="B405" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C405" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E405" t="s">
         <v>552</v>
       </c>
       <c r="F405" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="B406" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C406" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E406" t="s">
         <v>552</v>
       </c>
       <c r="F406" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B407" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C407" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E407" t="s">
         <v>552</v>
       </c>
       <c r="F407" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="B408" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C408" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E408" t="s">
         <v>661</v>
@@ -13257,13 +13248,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="B409" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C409" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E409" t="s">
         <v>552</v>
@@ -13274,13 +13265,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B410" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C410" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E410" t="s">
         <v>528</v>
@@ -13291,30 +13282,30 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="B411" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C411" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E411" t="s">
         <v>552</v>
       </c>
       <c r="F411" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="B412" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C412" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E412" t="s">
         <v>552</v>
@@ -13325,13 +13316,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B413" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C413" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E413" t="s">
         <v>528</v>
@@ -13342,13 +13333,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="B414" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C414" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E414" t="s">
         <v>552</v>
@@ -13359,30 +13350,30 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="B415" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C415" t="s">
+        <v>858</v>
+      </c>
+      <c r="E415" t="s">
+        <v>528</v>
+      </c>
+      <c r="F415" t="s">
         <v>859</v>
-      </c>
-      <c r="E415" t="s">
-        <v>528</v>
-      </c>
-      <c r="F415" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B416" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C416" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E416" t="s">
         <v>552</v>
@@ -13393,13 +13384,13 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B417" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C417" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E417" t="s">
         <v>96</v>
@@ -13407,13 +13398,13 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="B418" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C418" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E418" t="s">
         <v>19</v>
@@ -13421,98 +13412,98 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B419" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C419" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E419" t="s">
         <v>552</v>
       </c>
       <c r="F419" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B420" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C420" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E420" t="s">
         <v>552</v>
       </c>
       <c r="F420" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="B421" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C421" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E421" t="s">
         <v>552</v>
       </c>
       <c r="F421" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B422" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C422" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E422" t="s">
         <v>552</v>
       </c>
       <c r="F422" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B423" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C423" t="s">
+        <v>870</v>
+      </c>
+      <c r="E423" t="s">
         <v>871</v>
       </c>
-      <c r="E423" t="s">
+      <c r="F423" t="s">
         <v>872</v>
-      </c>
-      <c r="F423" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="B424" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C424" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E424" t="s">
         <v>19</v>
@@ -13520,13 +13511,13 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B425" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C425" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E425" t="s">
         <v>661</v>
@@ -13537,13 +13528,13 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="B426" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C426" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E426" t="s">
         <v>528</v>
@@ -13554,13 +13545,13 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B427" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C427" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E427" t="s">
         <v>528</v>
@@ -13571,13 +13562,13 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B428" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C428" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E428" t="s">
         <v>528</v>
@@ -13588,64 +13579,64 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B429" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C429" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E429" t="s">
         <v>552</v>
       </c>
       <c r="F429" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B430" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C430" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E430" t="s">
         <v>552</v>
       </c>
       <c r="F430" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B431" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C431" t="s">
+        <v>881</v>
+      </c>
+      <c r="E431" t="s">
+        <v>528</v>
+      </c>
+      <c r="F431" t="s">
         <v>882</v>
-      </c>
-      <c r="E431" t="s">
-        <v>528</v>
-      </c>
-      <c r="F431" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B432" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C432" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E432" t="s">
         <v>528</v>
@@ -13656,47 +13647,47 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B433" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C433" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E433" t="s">
         <v>552</v>
       </c>
       <c r="F433" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B434" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C434" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E434" t="s">
         <v>715</v>
       </c>
       <c r="F434" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B435" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C435" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E435" t="s">
         <v>552</v>
@@ -13707,30 +13698,30 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B436" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C436" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E436" t="s">
         <v>552</v>
       </c>
       <c r="F436" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B437" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C437" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E437" t="s">
         <v>528</v>
@@ -13741,13 +13732,13 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B438" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C438" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F438" t="s">
         <v>19</v>
@@ -13755,13 +13746,13 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B439" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C439" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E439" t="s">
         <v>528</v>
@@ -13772,13 +13763,13 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B440" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C440" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E440" t="s">
         <v>528</v>
@@ -13789,13 +13780,13 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B441" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C441" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E441" t="s">
         <v>552</v>
@@ -13806,13 +13797,13 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B442" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C442" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E442" t="s">
         <v>528</v>
@@ -13823,13 +13814,13 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B443" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C443" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E443" t="s">
         <v>528</v>
@@ -13840,30 +13831,30 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B444" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C444" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E444" t="s">
         <v>552</v>
       </c>
       <c r="F444" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B445" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C445" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E445" t="s">
         <v>528</v>
@@ -13874,13 +13865,13 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B446" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C446" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E446" t="s">
         <v>96</v>
@@ -13888,13 +13879,13 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B447" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C447" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E447" t="s">
         <v>552</v>
@@ -13905,30 +13896,30 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B448" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C448" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E448" t="s">
         <v>668</v>
       </c>
       <c r="F448" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B449" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C449" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E449" t="s">
         <v>715</v>
@@ -13939,47 +13930,47 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B450" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C450" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E450" t="s">
         <v>552</v>
       </c>
       <c r="F450" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B451" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C451" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E451" t="s">
         <v>552</v>
       </c>
       <c r="F451" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B452" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C452" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E452" t="s">
         <v>528</v>
@@ -13990,13 +13981,13 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B453" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C453" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E453" t="s">
         <v>96</v>
@@ -14004,30 +13995,30 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B454" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C454" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E454" t="s">
         <v>523</v>
       </c>
       <c r="F454" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B455" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C455" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E455" t="s">
         <v>528</v>
@@ -14038,47 +14029,47 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B456" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C456" t="s">
+        <v>912</v>
+      </c>
+      <c r="E456" t="s">
+        <v>528</v>
+      </c>
+      <c r="F456" t="s">
         <v>913</v>
-      </c>
-      <c r="E456" t="s">
-        <v>528</v>
-      </c>
-      <c r="F456" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B457" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C457" t="s">
+        <v>914</v>
+      </c>
+      <c r="E457" t="s">
+        <v>528</v>
+      </c>
+      <c r="F457" t="s">
         <v>915</v>
-      </c>
-      <c r="E457" t="s">
-        <v>528</v>
-      </c>
-      <c r="F457" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B458" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C458" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E458" t="s">
         <v>552</v>
@@ -14089,13 +14080,13 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="B459" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C459" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E459" t="s">
         <v>528</v>
@@ -14106,13 +14097,13 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B460" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C460" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E460" t="s">
         <v>19</v>
@@ -14120,16 +14111,16 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B461" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C461" t="s">
+        <v>919</v>
+      </c>
+      <c r="E461" t="s">
         <v>920</v>
-      </c>
-      <c r="E461" t="s">
-        <v>921</v>
       </c>
       <c r="F461" t="s">
         <v>300</v>
@@ -14137,13 +14128,13 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B462" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C462" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E462" t="s">
         <v>528</v>
@@ -14154,30 +14145,30 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B463" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C463" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E463" t="s">
         <v>552</v>
       </c>
       <c r="F463" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B464" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C464" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E464" t="s">
         <v>552</v>
@@ -14188,13 +14179,13 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B465" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C465" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E465" t="s">
         <v>528</v>
@@ -14205,13 +14196,13 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B466" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C466" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E466" t="s">
         <v>528</v>
@@ -14222,13 +14213,13 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B467" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C467" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E467" t="s">
         <v>528</v>
@@ -14239,30 +14230,30 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B468" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C468" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E468" t="s">
         <v>661</v>
       </c>
       <c r="F468" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B469" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C469" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F469" t="s">
         <v>96</v>
@@ -14270,78 +14261,78 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B470" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C470" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E470" t="s">
         <v>552</v>
       </c>
       <c r="F470" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B471" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C471" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E471" t="s">
         <v>668</v>
       </c>
       <c r="F471" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B472" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C472" t="s">
+        <v>934</v>
+      </c>
+      <c r="F472" t="s">
         <v>935</v>
-      </c>
-      <c r="F472" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B473" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C473" t="s">
+        <v>936</v>
+      </c>
+      <c r="E473" t="s">
         <v>937</v>
       </c>
-      <c r="E473" t="s">
+      <c r="F473" t="s">
         <v>938</v>
-      </c>
-      <c r="F473" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B474" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C474" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E474" t="s">
         <v>552</v>
@@ -14352,13 +14343,13 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="B475" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C475" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E475" t="s">
         <v>552</v>
@@ -14369,13 +14360,13 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B476" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C476" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E476" t="s">
         <v>96</v>
@@ -14383,13 +14374,13 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B477" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C477" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E477" t="s">
         <v>528</v>
@@ -14400,64 +14391,64 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B478" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C478" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E478" t="s">
+        <v>937</v>
+      </c>
+      <c r="F478" t="s">
         <v>938</v>
-      </c>
-      <c r="F478" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B479" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C479" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E479" t="s">
         <v>523</v>
       </c>
       <c r="F479" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B480" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C480" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E480" t="s">
         <v>767</v>
       </c>
       <c r="F480" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B481" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C481" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E481" t="s">
         <v>668</v>
@@ -14468,30 +14459,30 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B482" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C482" t="s">
+        <v>949</v>
+      </c>
+      <c r="E482" t="s">
         <v>950</v>
       </c>
-      <c r="E482" t="s">
+      <c r="F482" t="s">
         <v>951</v>
-      </c>
-      <c r="F482" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B483" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C483" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E483" t="s">
         <v>767</v>
@@ -14502,13 +14493,13 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B484" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C484" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E484" t="s">
         <v>767</v>
@@ -14519,13 +14510,13 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B485" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C485" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E485" t="s">
         <v>102</v>
@@ -14533,30 +14524,30 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B486" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C486" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E486" t="s">
         <v>767</v>
       </c>
       <c r="F486" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B487" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C487" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E487" t="s">
         <v>767</v>
@@ -14567,115 +14558,115 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B488" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C488" t="s">
+        <v>958</v>
+      </c>
+      <c r="E488" t="s">
         <v>959</v>
       </c>
-      <c r="E488" t="s">
+      <c r="F488" t="s">
         <v>960</v>
-      </c>
-      <c r="F488" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B489" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C489" t="s">
+        <v>961</v>
+      </c>
+      <c r="E489" t="s">
+        <v>937</v>
+      </c>
+      <c r="F489" t="s">
         <v>962</v>
-      </c>
-      <c r="E489" t="s">
-        <v>938</v>
-      </c>
-      <c r="F489" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B490" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C490" t="s">
+        <v>963</v>
+      </c>
+      <c r="E490" t="s">
         <v>964</v>
       </c>
-      <c r="E490" t="s">
+      <c r="F490" t="s">
         <v>965</v>
-      </c>
-      <c r="F490" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B491" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C491" t="s">
+        <v>966</v>
+      </c>
+      <c r="E491" t="s">
         <v>967</v>
       </c>
-      <c r="E491" t="s">
+      <c r="F491" t="s">
         <v>968</v>
-      </c>
-      <c r="F491" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B492" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C492" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E492" t="s">
         <v>668</v>
       </c>
       <c r="F492" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B493" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C493" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E493" t="s">
         <v>668</v>
       </c>
       <c r="F493" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B494" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C494" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E494" t="s">
         <v>102</v>
@@ -14683,13 +14674,13 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B495" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C495" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E495" t="s">
         <v>102</v>
@@ -14697,13 +14688,13 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B496" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C496" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E496" t="s">
         <v>19</v>
@@ -14711,13 +14702,13 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B497" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C497" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E497" t="s">
         <v>528</v>
@@ -14728,81 +14719,81 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B498" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C498" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E498" t="s">
+        <v>937</v>
+      </c>
+      <c r="F498" t="s">
         <v>938</v>
-      </c>
-      <c r="F498" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B499" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C499" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E499" t="s">
+        <v>964</v>
+      </c>
+      <c r="F499" t="s">
         <v>965</v>
-      </c>
-      <c r="F499" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B500" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C500" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E500" t="s">
         <v>668</v>
       </c>
       <c r="F500" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="B501" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C501" t="s">
+        <v>979</v>
+      </c>
+      <c r="E501" t="s">
+        <v>528</v>
+      </c>
+      <c r="F501" t="s">
         <v>980</v>
-      </c>
-      <c r="E501" t="s">
-        <v>528</v>
-      </c>
-      <c r="F501" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B502" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C502" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E502" t="s">
         <v>102</v>
@@ -14810,47 +14801,47 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B503" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C503" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E503" t="s">
+        <v>937</v>
+      </c>
+      <c r="F503" t="s">
         <v>938</v>
-      </c>
-      <c r="F503" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B504" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C504" t="s">
+        <v>983</v>
+      </c>
+      <c r="E504" t="s">
         <v>984</v>
       </c>
-      <c r="E504" t="s">
+      <c r="F504" t="s">
         <v>985</v>
-      </c>
-      <c r="F504" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B505" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C505" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E505" t="s">
         <v>552</v>
@@ -14861,30 +14852,30 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B506" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C506" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E506" t="s">
+        <v>959</v>
+      </c>
+      <c r="F506" t="s">
         <v>960</v>
-      </c>
-      <c r="F506" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="B507" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C507" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E507" t="s">
         <v>661</v>
@@ -14895,13 +14886,13 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B508" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C508" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E508" t="s">
         <v>661</v>
@@ -14912,13 +14903,13 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B509" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C509" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E509" t="s">
         <v>528</v>
@@ -14929,13 +14920,13 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B510" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C510" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E510" t="s">
         <v>767</v>
@@ -14946,13 +14937,13 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B511" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C511" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E511" t="s">
         <v>56</v>
@@ -14960,13 +14951,13 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B512" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C512" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E512" t="s">
         <v>523</v>
@@ -14977,13 +14968,13 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B513" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C513" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E513" t="s">
         <v>528</v>
@@ -14994,132 +14985,132 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B514" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C514" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E514" t="s">
         <v>661</v>
       </c>
       <c r="F514" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B515" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C515" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E515" t="s">
         <v>668</v>
       </c>
       <c r="F515" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B516" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C516" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E516" t="s">
         <v>552</v>
       </c>
       <c r="F516" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B517" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C517" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E517" t="s">
         <v>668</v>
       </c>
       <c r="F517" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B518" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C518" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E518" t="s">
         <v>668</v>
       </c>
       <c r="F518" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B519" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C519" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E519" t="s">
         <v>552</v>
       </c>
       <c r="F519" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B520" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C520" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E520" t="s">
         <v>552</v>
       </c>
       <c r="F520" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B521" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C521" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E521" t="s">
         <v>96</v>
@@ -15127,30 +15118,30 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B522" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C522" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E522" t="s">
         <v>552</v>
       </c>
       <c r="F522" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B523" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C523" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E523" t="s">
         <v>528</v>
@@ -15161,13 +15152,13 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B524" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C524" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E524" t="s">
         <v>528</v>
@@ -15178,30 +15169,30 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B525" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C525" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E525" t="s">
         <v>668</v>
       </c>
       <c r="F525" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B526" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C526" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E526" t="s">
         <v>668</v>
@@ -15212,13 +15203,13 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B527" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C527" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E527" t="s">
         <v>528</v>
@@ -15229,30 +15220,30 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B528" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C528" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E528" t="s">
         <v>552</v>
       </c>
       <c r="F528" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B529" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C529" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E529" t="s">
         <v>528</v>
@@ -15263,10 +15254,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B530" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C530" t="s">
         <v>213</v>
@@ -15280,10 +15271,10 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B531" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C531" t="s">
         <v>154</v>
@@ -15297,10 +15288,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="B532" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C532" t="s">
         <v>163</v>
@@ -15314,30 +15305,30 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B533" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C533" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E533" t="s">
         <v>661</v>
       </c>
       <c r="F533" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B534" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C534" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E534" t="s">
         <v>528</v>
@@ -15348,44 +15339,44 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B535" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C535" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E535" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B536" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C536" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E536" t="s">
         <v>767</v>
       </c>
       <c r="F536" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B537" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C537" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E537" t="s">
         <v>767</v>
@@ -15396,13 +15387,13 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="B538" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C538" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E538" t="s">
         <v>767</v>
@@ -15413,13 +15404,13 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B539" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C539" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E539" t="s">
         <v>767</v>
@@ -15430,30 +15421,30 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B540" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C540" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F540" t="s">
         <v>1029</v>
-      </c>
-      <c r="E540" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F540" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="B541" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C541" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E541" t="s">
         <v>767</v>
@@ -15464,13 +15455,13 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B542" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C542" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E542" t="s">
         <v>528</v>
@@ -15481,13 +15472,13 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B543" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C543" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E543" t="s">
         <v>767</v>
@@ -15498,30 +15489,30 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B544" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C544" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F544" t="s">
         <v>1035</v>
-      </c>
-      <c r="E544" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B545" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C545" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E545" t="s">
         <v>767</v>
@@ -15532,47 +15523,47 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B546" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C546" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E546" t="s">
         <v>661</v>
       </c>
       <c r="F546" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B547" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C547" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E547" t="s">
         <v>528</v>
       </c>
       <c r="F547" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B548" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C548" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E548" t="s">
         <v>56</v>
@@ -15580,13 +15571,13 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B549" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C549" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E549" t="s">
         <v>552</v>
@@ -15597,13 +15588,13 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B550" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C550" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E550" t="s">
         <v>102</v>
@@ -15611,13 +15602,13 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B551" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C551" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E551" t="s">
         <v>96</v>
@@ -15625,13 +15616,13 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B552" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C552" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E552" t="s">
         <v>528</v>
@@ -15642,47 +15633,47 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B553" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C553" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E553" t="s">
         <v>528</v>
       </c>
       <c r="F553" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B554" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C554" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E554" t="s">
         <v>528</v>
       </c>
       <c r="F554" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="B555" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C555" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E555" t="s">
         <v>528</v>
@@ -15693,13 +15684,13 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B556" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C556" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E556" t="s">
         <v>56</v>
@@ -15707,13 +15698,13 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B557" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C557" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E557" t="s">
         <v>56</v>
@@ -15721,13 +15712,13 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="B558" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C558" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E558" t="s">
         <v>528</v>
@@ -15738,13 +15729,13 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="B559" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C559" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E559" t="s">
         <v>528</v>
@@ -15755,30 +15746,30 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B560" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C560" t="s">
         <v>207</v>
       </c>
       <c r="E560" t="s">
-        <v>995</v>
+        <v>523</v>
       </c>
       <c r="F560" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="B561" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C561" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E561" t="s">
         <v>528</v>
@@ -15789,13 +15780,13 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="B562" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C562" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E562" t="s">
         <v>528</v>
@@ -15806,13 +15797,13 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B563" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C563" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E563" t="s">
         <v>528</v>
@@ -15823,30 +15814,30 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="B564" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C564" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E564" t="s">
         <v>523</v>
       </c>
       <c r="F564" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="B565" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C565" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E565" t="s">
         <v>56</v>
@@ -15854,13 +15845,13 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B566" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C566" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E566" t="s">
         <v>528</v>
@@ -15871,13 +15862,13 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B567" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C567" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E567" t="s">
         <v>528</v>
@@ -15888,30 +15879,30 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="B568" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C568" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E568" t="s">
         <v>528</v>
       </c>
       <c r="F568" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B569" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C569" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E569" t="s">
         <v>528</v>
@@ -15922,13 +15913,13 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="B570" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C570" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E570" t="s">
         <v>96</v>
@@ -15936,13 +15927,13 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B571" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C571" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E571" t="s">
         <v>528</v>
@@ -15953,64 +15944,64 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B572" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C572" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E572" t="s">
         <v>528</v>
       </c>
       <c r="F572" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B573" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C573" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E573" t="s">
         <v>552</v>
       </c>
       <c r="F573" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B574" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C574" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E574" t="s">
         <v>552</v>
       </c>
       <c r="F574" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B575" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C575" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E575" t="s">
         <v>528</v>
@@ -16021,13 +16012,13 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="B576" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C576" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E576" t="s">
         <v>528</v>
@@ -16038,13 +16029,13 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B577" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C577" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E577" t="s">
         <v>528</v>
@@ -16055,13 +16046,13 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B578" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C578" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E578" t="s">
         <v>528</v>
@@ -16072,50 +16063,50 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="B579" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C579" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E579" t="s">
-        <v>1077</v>
+        <v>301</v>
       </c>
       <c r="F579" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="B580" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C580" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E580" t="s">
         <v>528</v>
       </c>
       <c r="F580" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B581" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C581" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E581" t="s">
-        <v>995</v>
+        <v>523</v>
       </c>
       <c r="F581" t="s">
         <v>302</v>
@@ -16123,13 +16114,13 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="B582" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C582" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E582" t="s">
         <v>528</v>
@@ -16140,30 +16131,30 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="B583" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C583" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E583" t="s">
         <v>528</v>
       </c>
       <c r="F583" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B584" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C584" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E584" t="s">
         <v>528</v>
@@ -16174,61 +16165,61 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="B585" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C585" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E585" t="s">
+        <v>964</v>
+      </c>
+      <c r="F585" t="s">
         <v>965</v>
-      </c>
-      <c r="F585" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="B586" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C586" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E586" t="s">
         <v>767</v>
       </c>
       <c r="F586" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B587" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C587" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E587" t="s">
         <v>552</v>
       </c>
       <c r="F587" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B588" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C588" t="s">
         <v>233</v>
@@ -16237,18 +16228,18 @@
         <v>668</v>
       </c>
       <c r="F588" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B589" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C589" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E589" t="s">
         <v>767</v>
@@ -16259,13 +16250,13 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B590" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C590" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E590" t="s">
         <v>767</v>
@@ -16276,13 +16267,13 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="B591" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C591" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E591" t="s">
         <v>767</v>
@@ -16293,13 +16284,13 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B592" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C592" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="E592" t="s">
         <v>767</v>
@@ -16310,13 +16301,13 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B593" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C593" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E593" t="s">
         <v>96</v>
@@ -16324,13 +16315,13 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B594" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C594" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E594" t="s">
         <v>528</v>
